--- a/fire_emergency_simulation/replication_results.xlsx
+++ b/fire_emergency_simulation/replication_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="three_policy_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -37,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +451,1893 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>replication</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch_p90</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch_mean_RT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch_avg_queue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch_max_queue</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch_system_load</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch_total_services</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MinP95_p90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MinP95_mean_RT</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MinP95_avg_queue</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MinP95_max_queue</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MinP95_system_load</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MinP95_total_services</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>LBR_p90</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>LBR_mean_RT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LBR_avg_queue</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LBR_max_queue</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LBR_system_load</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LBR_total_services</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.335642794796126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000181</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0575882</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.320371374578917</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0504334</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24342</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.642000000000044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.322035427394439</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.000178</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0493774</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24275</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.330443069720782</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.060728</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23924</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.320997288842545</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0487504</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23975</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.378765097875886</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.000165</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0467252</v>
+      </c>
+      <c r="S3" t="n">
+        <v>24010</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.379751675041876</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.000109</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0578404</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23880</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.328053401517374</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000165</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.048274</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23857</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.664000000000015</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.336476042628178</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.047689</v>
+      </c>
+      <c r="S4" t="n">
+        <v>23834</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.380932357562227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.059194</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24186</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.309227355673523</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000162</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.049865</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24112</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.336198028822263</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.000188</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.048223</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.348999958879888</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.000159</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0578852</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24319</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.346819038256737</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000177</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0502638</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24414</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.3836962492314</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.000163</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0483664</v>
+      </c>
+      <c r="S6" t="n">
+        <v>24395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.371558959033745</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.000298</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0582392</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24093</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.356665694889842</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.000139</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0503108</v>
+      </c>
+      <c r="M7" t="n">
+        <v>24011</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.36049642441377</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0496634</v>
+      </c>
+      <c r="S7" t="n">
+        <v>24052</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.346492926284438</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.000132</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0581024</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24174</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.335465015120759</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000172</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0508532</v>
+      </c>
+      <c r="M8" t="n">
+        <v>24139</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.334421122495541</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0498186</v>
+      </c>
+      <c r="S8" t="n">
+        <v>24107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.345399143381603</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.000185</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0585172</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24515</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.274332446264073</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000296</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0523692</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24425</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.328298692247776</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.000197</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0486404</v>
+      </c>
+      <c r="S9" t="n">
+        <v>24393</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.346187803965582</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0570188</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24057</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.320116225976506</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0488242</v>
+      </c>
+      <c r="M10" t="n">
+        <v>24091</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.319885429638854</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.000124</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0472184</v>
+      </c>
+      <c r="S10" t="n">
+        <v>24090</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.317827774763117</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.000144</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.057249</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23957</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.279755260845919</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000177</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0491236</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23903</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.285484550857817</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.000147</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0475088</v>
+      </c>
+      <c r="S11" t="n">
+        <v>23723</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.372603603603604</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0581786</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24420</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.33778773006135</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0496182</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24450</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.341126552699545</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.000205</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.047777</v>
+      </c>
+      <c r="S12" t="n">
+        <v>24393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.307136683541178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000188</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0602184</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24297</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.30671203026067</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.000157</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0505798</v>
+      </c>
+      <c r="M13" t="n">
+        <v>24322</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.361095851098721</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0493404</v>
+      </c>
+      <c r="S13" t="n">
+        <v>24392</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.348541666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.000234</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0581528</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24336</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.319647150216698</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000104</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0492184</v>
+      </c>
+      <c r="M14" t="n">
+        <v>24458</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.424085752897334</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.000126</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0464814</v>
+      </c>
+      <c r="S14" t="n">
+        <v>24419</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.335084802128367</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0592462</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24056</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.277911841613746</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000135</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0508704</v>
+      </c>
+      <c r="M15" t="n">
+        <v>24093</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.298143986683312</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.000107</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0482082</v>
+      </c>
+      <c r="S15" t="n">
+        <v>24030</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.322889967772988</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.000172</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0574526</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23893</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.308829769462078</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0496298</v>
+      </c>
+      <c r="M16" t="n">
+        <v>23944</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.312388564273789</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.000197</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0481912</v>
+      </c>
+      <c r="S16" t="n">
+        <v>23960</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.342040543279952</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.000274</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0587682</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24665</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.322324934554974</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0509408</v>
+      </c>
+      <c r="M17" t="n">
+        <v>24448</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.318492271203075</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0494446</v>
+      </c>
+      <c r="S17" t="n">
+        <v>24454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.422661980566466</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.000246</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.058601</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24185</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.332963393858811</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.049229</v>
+      </c>
+      <c r="M18" t="n">
+        <v>24067</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.377959166735828</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.000159</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0474058</v>
+      </c>
+      <c r="S18" t="n">
+        <v>24098</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.349472407012258</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.000175</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0585274</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23901</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.328287699907897</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000138</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.052468</v>
+      </c>
+      <c r="M19" t="n">
+        <v>23886</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.36821551218695</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0493316</v>
+      </c>
+      <c r="S19" t="n">
+        <v>23878</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.33231807951988</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.000134</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0574354</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23994</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.33969617184888</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0488924</v>
+      </c>
+      <c r="M20" t="n">
+        <v>23928</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.391900546950023</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.000129</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0473056</v>
+      </c>
+      <c r="S20" t="n">
+        <v>23951</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.331863419798836</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.000143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0625156</v>
+      </c>
+      <c r="G21" t="n">
+        <v>24557</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.330518587814203</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0505962</v>
+      </c>
+      <c r="M21" t="n">
+        <v>24586</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.336864334643914</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0507144</v>
+      </c>
+      <c r="S21" t="n">
+        <v>24671</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.336556599884574</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.000174</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0611612</v>
+      </c>
+      <c r="G22" t="n">
+        <v>24258</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.298587437456064</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0510972</v>
+      </c>
+      <c r="M22" t="n">
+        <v>24183</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.337082988923789</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.000271</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0488638</v>
+      </c>
+      <c r="S22" t="n">
+        <v>24196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.326922916579815</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.000229</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0598538</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23987</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.282831718574577</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0502504</v>
+      </c>
+      <c r="M23" t="n">
+        <v>24049</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.292955502731556</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.000212</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.048492</v>
+      </c>
+      <c r="S23" t="n">
+        <v>23979</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.331165963780699</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.000259</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0586588</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.331359943919837</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0495486</v>
+      </c>
+      <c r="M24" t="n">
+        <v>24251</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.332744340824124</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.000202</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0487972</v>
+      </c>
+      <c r="S24" t="n">
+        <v>24341</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.384466220127347</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.000259</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0594438</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24186</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.327839287187526</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.000233</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.04886</v>
+      </c>
+      <c r="M25" t="n">
+        <v>24242</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.327392270650697</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0484042</v>
+      </c>
+      <c r="S25" t="n">
+        <v>24297</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.35615282986703</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.000157</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0570664</v>
+      </c>
+      <c r="G26" t="n">
+        <v>23464</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.332209568162574</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0496324</v>
+      </c>
+      <c r="M26" t="n">
+        <v>23620</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.332636788445199</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0490396</v>
+      </c>
+      <c r="S26" t="n">
+        <v>23540</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.355541259433378</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.000156</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0583028</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24249</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.32569441004046</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.7e-05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0511224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>24222</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.381517559389025</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0485616</v>
+      </c>
+      <c r="S27" t="n">
+        <v>24289</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.373171795191229</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.000207</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.058344</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24081</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.327455937112122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0514276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>24170</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.340201519656425</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.000124</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0495706</v>
+      </c>
+      <c r="S28" t="n">
+        <v>24216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.328927130506381</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.000115</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0581234</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24290</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.287939827251313</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.000158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0514694</v>
+      </c>
+      <c r="M29" t="n">
+        <v>24197</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.306653460443234</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.000129</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0504408</v>
+      </c>
+      <c r="S29" t="n">
+        <v>24231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.339871161603688</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.000134</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06044</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24294</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.297946274542019</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.000147</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.049712</v>
+      </c>
+      <c r="M30" t="n">
+        <v>24346</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.302691485864562</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0490816</v>
+      </c>
+      <c r="S30" t="n">
+        <v>24336</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.332940063351022</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.000216</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0579544</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24309</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.301232589670899</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0494102</v>
+      </c>
+      <c r="M31" t="n">
+        <v>24339</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.409955697760275</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.000219</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0461966</v>
+      </c>
+      <c r="S31" t="n">
+        <v>24378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,117 +2346,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>comparison</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>param_set</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>replication</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>p1_percentile_90</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>p2_percentile_90</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>diff_percentile_90</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>p1_mean_RT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>p2_mean_RT</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>diff_mean_RT</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>p1_max_queue</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>p2_max_queue</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>diff_max_queue</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>p1_avg_queue</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>p2_avg_queue</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>diff_avg_queue</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>p1_system_load</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>p2_system_load</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>diff_system_load</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>p1_total_services</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>p2_total_services</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>diff_total_services</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>win_p90</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>win_mean</t>
         </is>
@@ -553,7 +2465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -563,58 +2475,58 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="E2" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1000000000000005</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>4.335487213495254</v>
+        <v>4.335642794796126</v>
       </c>
       <c r="H2" t="n">
-        <v>4.328685747421613</v>
+        <v>4.320371374578917</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006801466073641294</v>
+        <v>-0.01527142021720884</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000402</v>
+        <v>0.000181</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.000222</v>
+        <v>-1.1e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.057677</v>
+        <v>0.0575882</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0474638</v>
+        <v>0.0504334</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0102132</v>
+        <v>-0.007154799999999996</v>
       </c>
       <c r="S2" t="n">
-        <v>24127</v>
+        <v>24059</v>
       </c>
       <c r="T2" t="n">
-        <v>24143</v>
+        <v>24342</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -626,7 +2538,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -636,58 +2548,58 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="E3" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F3" t="n">
         <v>-0.1699999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>4.402763224181361</v>
+        <v>4.330443069720782</v>
       </c>
       <c r="H3" t="n">
-        <v>4.35760355153495</v>
+        <v>4.320997288842545</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04515967264641052</v>
+        <v>-0.009445780878237109</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000158</v>
+        <v>0.000239</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000124</v>
+        <v>0.000201</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.399999999999999e-05</v>
+        <v>-3.8e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.056594</v>
+        <v>0.060728</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0480038</v>
+        <v>0.0487504</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.008590199999999999</v>
+        <v>-0.0119776</v>
       </c>
       <c r="S3" t="n">
-        <v>23820</v>
+        <v>23924</v>
       </c>
       <c r="T3" t="n">
-        <v>23877</v>
+        <v>23975</v>
       </c>
       <c r="U3" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -699,7 +2611,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -712,55 +2624,55 @@
         <v>5.8</v>
       </c>
       <c r="E4" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.1499999999999995</v>
       </c>
       <c r="G4" t="n">
-        <v>4.370711812711235</v>
+        <v>4.379751675041876</v>
       </c>
       <c r="H4" t="n">
-        <v>4.336438645105257</v>
+        <v>4.328053401517374</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03427316760597865</v>
+        <v>-0.05169827352450262</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000205</v>
+        <v>0.000109</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0002</v>
+        <v>0.000165</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.999999999999986e-06</v>
+        <v>5.599999999999999e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0601936</v>
+        <v>0.0578404</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0503038</v>
+        <v>0.048274</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.009889799999999997</v>
+        <v>-0.009566400000000003</v>
       </c>
       <c r="S4" t="n">
-        <v>24262</v>
+        <v>23880</v>
       </c>
       <c r="T4" t="n">
-        <v>24179</v>
+        <v>23857</v>
       </c>
       <c r="U4" t="n">
-        <v>-83</v>
+        <v>-23</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -772,7 +2684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -782,70 +2694,70 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="E5" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07000000000000028</v>
+        <v>-0.1500000000000004</v>
       </c>
       <c r="G5" t="n">
-        <v>4.326370284194781</v>
+        <v>4.380932357562227</v>
       </c>
       <c r="H5" t="n">
-        <v>4.345690458364529</v>
+        <v>4.309227355673523</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01932017416974752</v>
+        <v>-0.0717050018887031</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000152</v>
+        <v>0.000201</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000206</v>
+        <v>0.000162</v>
       </c>
       <c r="O5" t="n">
-        <v>5.399999999999998e-05</v>
+        <v>-3.9e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0568908</v>
+        <v>0.059194</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0475266</v>
+        <v>0.049865</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.009364199999999996</v>
+        <v>-0.009328999999999997</v>
       </c>
       <c r="S5" t="n">
-        <v>24068</v>
+        <v>24186</v>
       </c>
       <c r="T5" t="n">
-        <v>24042</v>
+        <v>24112</v>
       </c>
       <c r="U5" t="n">
-        <v>-26</v>
+        <v>-74</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -855,70 +2767,70 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="E6" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1000000000000005</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>4.335518544669187</v>
+        <v>4.348999958879888</v>
       </c>
       <c r="H6" t="n">
-        <v>4.364634995647307</v>
+        <v>4.346819038256737</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02911645097812077</v>
+        <v>-0.002180920623150229</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.000161</v>
+        <v>0.000159</v>
       </c>
       <c r="N6" t="n">
-        <v>0.000163</v>
+        <v>0.000177</v>
       </c>
       <c r="O6" t="n">
-        <v>1.999999999999994e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0604102</v>
+        <v>0.0578852</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0483712</v>
+        <v>0.0502638</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.01203899999999999</v>
+        <v>-0.0076214</v>
       </c>
       <c r="S6" t="n">
-        <v>24077</v>
+        <v>24319</v>
       </c>
       <c r="T6" t="n">
-        <v>24123</v>
+        <v>24414</v>
       </c>
       <c r="U6" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -928,70 +2840,70 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="E7" t="n">
-        <v>5.7</v>
+        <v>5.62</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1200000000000001</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>4.363933629776021</v>
+        <v>4.371558959033745</v>
       </c>
       <c r="H7" t="n">
-        <v>4.423790156930408</v>
+        <v>4.356665694889842</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05985652715438672</v>
+        <v>-0.01489326414390302</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.000125</v>
+        <v>0.000298</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000132</v>
+        <v>0.000139</v>
       </c>
       <c r="O7" t="n">
-        <v>7.000000000000008e-06</v>
+        <v>-0.000159</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0593474</v>
+        <v>0.0582392</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0490632</v>
+        <v>0.0503108</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0102842</v>
+        <v>-0.007928399999999995</v>
       </c>
       <c r="S7" t="n">
-        <v>24288</v>
+        <v>24093</v>
       </c>
       <c r="T7" t="n">
-        <v>24342</v>
+        <v>24011</v>
       </c>
       <c r="U7" t="n">
-        <v>54</v>
+        <v>-82</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1004,55 +2916,55 @@
         <v>5.78</v>
       </c>
       <c r="E8" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1000000000000005</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>4.362196397205996</v>
+        <v>4.346492926284438</v>
       </c>
       <c r="H8" t="n">
-        <v>4.329626737530663</v>
+        <v>4.335465015120759</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03256965967533354</v>
+        <v>-0.01102791116367907</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000245</v>
+        <v>0.000132</v>
       </c>
       <c r="N8" t="n">
-        <v>0.000159</v>
+        <v>0.000172</v>
       </c>
       <c r="O8" t="n">
-        <v>-8.6e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0602476</v>
+        <v>0.0581024</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.049908</v>
+        <v>0.0508532</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0103396</v>
+        <v>-0.007249199999999997</v>
       </c>
       <c r="S8" t="n">
-        <v>24481</v>
+        <v>24174</v>
       </c>
       <c r="T8" t="n">
-        <v>24460</v>
+        <v>24139</v>
       </c>
       <c r="U8" t="n">
-        <v>-21</v>
+        <v>-35</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1064,7 +2976,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1074,58 +2986,58 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="E9" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1399999999999997</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="G9" t="n">
-        <v>4.326452694313384</v>
+        <v>4.345399143381603</v>
       </c>
       <c r="H9" t="n">
-        <v>4.317106336913982</v>
+        <v>4.274332446264073</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.009346357399402372</v>
+        <v>-0.07106669711753</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
       <c r="L9" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000214</v>
+        <v>0.000185</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000137</v>
+        <v>0.000296</v>
       </c>
       <c r="O9" t="n">
-        <v>-7.7e-05</v>
+        <v>0.000111</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0597306</v>
+        <v>0.0585172</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0507094</v>
+        <v>0.0523692</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0090212</v>
+        <v>-0.006148000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>24162</v>
+        <v>24515</v>
       </c>
       <c r="T9" t="n">
-        <v>24018</v>
+        <v>24425</v>
       </c>
       <c r="U9" t="n">
-        <v>-144</v>
+        <v>-90</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1137,7 +3049,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1147,22 +3059,22 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="E10" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1199999999999992</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="G10" t="n">
-        <v>4.347063104822314</v>
+        <v>4.346187803965582</v>
       </c>
       <c r="H10" t="n">
-        <v>4.321915058545144</v>
+        <v>4.320116225976506</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02514804627717027</v>
+        <v>-0.02607157798907611</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1174,31 +3086,31 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000241</v>
+        <v>0.000171</v>
       </c>
       <c r="N10" t="n">
-        <v>0.000256</v>
+        <v>0.000186</v>
       </c>
       <c r="O10" t="n">
         <v>1.499999999999999e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.060384</v>
+        <v>0.0570188</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0500062</v>
+        <v>0.0488242</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0103778</v>
+        <v>-0.008194600000000003</v>
       </c>
       <c r="S10" t="n">
-        <v>24594</v>
+        <v>24057</v>
       </c>
       <c r="T10" t="n">
-        <v>24511</v>
+        <v>24091</v>
       </c>
       <c r="U10" t="n">
-        <v>-83</v>
+        <v>34</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -1210,7 +3122,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1223,55 +3135,55 @@
         <v>5.78</v>
       </c>
       <c r="E11" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>4.349254217712329</v>
+        <v>4.317827774763117</v>
       </c>
       <c r="H11" t="n">
-        <v>4.335130549923449</v>
+        <v>4.279755260845919</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01412366778887986</v>
+        <v>-0.03807251391719824</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000156</v>
+        <v>0.000144</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000238</v>
+        <v>0.000177</v>
       </c>
       <c r="O11" t="n">
-        <v>8.200000000000001e-05</v>
+        <v>3.299999999999999e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0605582</v>
+        <v>0.057249</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0484432</v>
+        <v>0.0491236</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.012115</v>
+        <v>-0.008125399999999998</v>
       </c>
       <c r="S11" t="n">
-        <v>24243</v>
+        <v>23957</v>
       </c>
       <c r="T11" t="n">
-        <v>24167</v>
+        <v>23903</v>
       </c>
       <c r="U11" t="n">
-        <v>-76</v>
+        <v>-54</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -1283,7 +3195,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1296,67 +3208,67 @@
         <v>5.8</v>
       </c>
       <c r="E12" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1699999999999999</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="G12" t="n">
-        <v>4.312570080032834</v>
+        <v>4.372603603603604</v>
       </c>
       <c r="H12" t="n">
-        <v>4.32095445857226</v>
+        <v>4.33778773006135</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008384378539425974</v>
+        <v>-0.03481587354225457</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.000189</v>
+        <v>0.000262</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000196</v>
+        <v>0.000214</v>
       </c>
       <c r="O12" t="n">
-        <v>6.99999999999998e-06</v>
+        <v>-4.800000000000003e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0571902</v>
+        <v>0.0581786</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0484794</v>
+        <v>0.0496182</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.008710799999999998</v>
+        <v>-0.008560399999999996</v>
       </c>
       <c r="S12" t="n">
-        <v>24365</v>
+        <v>24420</v>
       </c>
       <c r="T12" t="n">
-        <v>24066</v>
+        <v>24450</v>
       </c>
       <c r="U12" t="n">
-        <v>-299</v>
+        <v>30</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1366,58 +3278,58 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="E13" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-0.1499999999999995</v>
       </c>
       <c r="G13" t="n">
-        <v>4.359625679375587</v>
+        <v>4.307136683541178</v>
       </c>
       <c r="H13" t="n">
-        <v>4.317228311804735</v>
+        <v>4.30671203026067</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04239736757085222</v>
+        <v>-0.0004246532805085579</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000272</v>
+        <v>0.000188</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00015</v>
+        <v>0.000157</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.000122</v>
+        <v>-3.099999999999999e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>0.058909</v>
+        <v>0.0602184</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0504716</v>
+        <v>0.0505798</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.008437400000000005</v>
+        <v>-0.009638599999999997</v>
       </c>
       <c r="S13" t="n">
-        <v>24471</v>
+        <v>24297</v>
       </c>
       <c r="T13" t="n">
-        <v>24541</v>
+        <v>24322</v>
       </c>
       <c r="U13" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -1429,7 +3341,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1442,55 +3354,55 @@
         <v>5.78</v>
       </c>
       <c r="E14" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1600000000000001</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>4.35588155793095</v>
+        <v>4.348541666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>4.314189858782724</v>
+        <v>4.319647150216698</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.04169169914822568</v>
+        <v>-0.02889451644996921</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000181</v>
+        <v>0.000234</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000166</v>
+        <v>0.000104</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.500000000000001e-05</v>
+        <v>-0.00013</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0593534</v>
+        <v>0.0581528</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0491202</v>
+        <v>0.0492184</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0102332</v>
+        <v>-0.008934399999999995</v>
       </c>
       <c r="S14" t="n">
-        <v>24417</v>
+        <v>24336</v>
       </c>
       <c r="T14" t="n">
-        <v>24218</v>
+        <v>24458</v>
       </c>
       <c r="U14" t="n">
-        <v>-199</v>
+        <v>122</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -1502,7 +3414,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1512,70 +3424,70 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="E15" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>4.345844735645489</v>
+        <v>4.335084802128367</v>
       </c>
       <c r="H15" t="n">
-        <v>4.365708964489694</v>
+        <v>4.277911841613746</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01986422884420502</v>
+        <v>-0.05717296051462117</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00027</v>
+        <v>0.000151</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00011</v>
+        <v>0.000135</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.00016</v>
+        <v>-1.600000000000001e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.058466</v>
+        <v>0.0592462</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0474006</v>
+        <v>0.0508704</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0110654</v>
+        <v>-0.008375799999999996</v>
       </c>
       <c r="S15" t="n">
-        <v>24191</v>
+        <v>24056</v>
       </c>
       <c r="T15" t="n">
-        <v>24162</v>
+        <v>24093</v>
       </c>
       <c r="U15" t="n">
-        <v>-29</v>
+        <v>37</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1585,22 +3497,22 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="E16" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1499999999999995</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>4.308023555851507</v>
+        <v>4.322889967772988</v>
       </c>
       <c r="H16" t="n">
-        <v>4.315271938605272</v>
+        <v>4.308829769462078</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00724838275376527</v>
+        <v>-0.01406019831090966</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1612,43 +3524,43 @@
         <v>-1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000167</v>
+        <v>0.000172</v>
       </c>
       <c r="N16" t="n">
-        <v>0.000114</v>
+        <v>0.000148</v>
       </c>
       <c r="O16" t="n">
-        <v>-5.299999999999999e-05</v>
+        <v>-2.400000000000001e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0576566</v>
+        <v>0.0574526</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0488942</v>
+        <v>0.0496298</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.008762400000000004</v>
+        <v>-0.007822799999999998</v>
       </c>
       <c r="S16" t="n">
-        <v>24028</v>
+        <v>23893</v>
       </c>
       <c r="T16" t="n">
-        <v>23976</v>
+        <v>23944</v>
       </c>
       <c r="U16" t="n">
-        <v>-52</v>
+        <v>51</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1658,58 +3570,58 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="E17" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.1399999999999997</v>
       </c>
       <c r="G17" t="n">
-        <v>4.345281095251966</v>
+        <v>4.342040543279952</v>
       </c>
       <c r="H17" t="n">
-        <v>4.335029728493617</v>
+        <v>4.322324934554974</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01025136675834926</v>
+        <v>-0.01971560872497768</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000167</v>
+        <v>0.000274</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000198</v>
+        <v>0.000186</v>
       </c>
       <c r="O17" t="n">
-        <v>3.099999999999999e-05</v>
+        <v>-8.8e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0580172</v>
+        <v>0.0587682</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.051249</v>
+        <v>0.0509408</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.006768199999999995</v>
+        <v>-0.007827399999999998</v>
       </c>
       <c r="S17" t="n">
-        <v>24031</v>
+        <v>24665</v>
       </c>
       <c r="T17" t="n">
-        <v>24051</v>
+        <v>24448</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>-217</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -1721,7 +3633,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1731,58 +3643,58 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>5.78</v>
+        <v>5.85</v>
       </c>
       <c r="E18" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1600000000000001</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="G18" t="n">
-        <v>4.350650296705544</v>
+        <v>4.422661980566466</v>
       </c>
       <c r="H18" t="n">
-        <v>4.308798913714356</v>
+        <v>4.332963393858811</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0418513829911884</v>
+        <v>-0.08969858670765518</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000222</v>
+        <v>0.000246</v>
       </c>
       <c r="N18" t="n">
-        <v>0.000203</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.9e-05</v>
+        <v>-0.000156</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0600242</v>
+        <v>0.058601</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0488852</v>
+        <v>0.049229</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.011139</v>
+        <v>-0.009371999999999998</v>
       </c>
       <c r="S18" t="n">
-        <v>24435</v>
+        <v>24185</v>
       </c>
       <c r="T18" t="n">
-        <v>24303</v>
+        <v>24067</v>
       </c>
       <c r="U18" t="n">
-        <v>-132</v>
+        <v>-118</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -1794,7 +3706,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1804,70 +3716,70 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="E19" t="n">
-        <v>5.7</v>
+        <v>5.67</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09999999999999964</v>
+        <v>-0.1100000000000003</v>
       </c>
       <c r="G19" t="n">
-        <v>4.350308047113088</v>
+        <v>4.349472407012258</v>
       </c>
       <c r="H19" t="n">
-        <v>4.382878769180139</v>
+        <v>4.328287699907897</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03257072206705125</v>
+        <v>-0.0211847071043616</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000286</v>
+        <v>0.000175</v>
       </c>
       <c r="N19" t="n">
-        <v>0.000179</v>
+        <v>0.000138</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.000107</v>
+        <v>-3.7e-05</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0591906</v>
+        <v>0.0585274</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0482508</v>
+        <v>0.052468</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0109398</v>
+        <v>-0.0060594</v>
       </c>
       <c r="S19" t="n">
-        <v>24282</v>
+        <v>23901</v>
       </c>
       <c r="T19" t="n">
-        <v>24309</v>
+        <v>23886</v>
       </c>
       <c r="U19" t="n">
-        <v>27</v>
+        <v>-15</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1877,70 +3789,70 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="E20" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1100000000000003</v>
+        <v>-0.1199999999999992</v>
       </c>
       <c r="G20" t="n">
-        <v>4.324355928732336</v>
+        <v>4.33231807951988</v>
       </c>
       <c r="H20" t="n">
-        <v>4.299001265254479</v>
+        <v>4.33969617184888</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02535466347785675</v>
+        <v>0.007378092328999664</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00023</v>
+        <v>0.000134</v>
       </c>
       <c r="N20" t="n">
-        <v>0.000118</v>
+        <v>0.000133</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.000112</v>
+        <v>-9.999999999999972e-07</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0582216</v>
+        <v>0.0574354</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0490864</v>
+        <v>0.0488924</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.009135199999999996</v>
+        <v>-0.008542999999999995</v>
       </c>
       <c r="S20" t="n">
-        <v>24415</v>
+        <v>23994</v>
       </c>
       <c r="T20" t="n">
-        <v>24501</v>
+        <v>23928</v>
       </c>
       <c r="U20" t="n">
-        <v>86</v>
+        <v>-66</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1950,22 +3862,22 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="E21" t="n">
         <v>5.65</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1499999999999995</v>
+        <v>-0.1199999999999992</v>
       </c>
       <c r="G21" t="n">
-        <v>4.343518289668808</v>
+        <v>4.331863419798836</v>
       </c>
       <c r="H21" t="n">
-        <v>4.345917785581491</v>
+        <v>4.330518587814203</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002399495912682958</v>
+        <v>-0.001344831984632755</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -1977,43 +3889,43 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.000204</v>
+        <v>0.000143</v>
       </c>
       <c r="N21" t="n">
-        <v>0.000199</v>
+        <v>0.000201</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.999999999999986e-06</v>
+        <v>5.8e-05</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05876</v>
+        <v>0.0625156</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0466264</v>
+        <v>0.0505962</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.0121336</v>
+        <v>-0.0119194</v>
       </c>
       <c r="S21" t="n">
-        <v>24276</v>
+        <v>24557</v>
       </c>
       <c r="T21" t="n">
-        <v>24205</v>
+        <v>24586</v>
       </c>
       <c r="U21" t="n">
-        <v>-71</v>
+        <v>29</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2023,58 +3935,58 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="E22" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1699999999999999</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>4.345231913947187</v>
+        <v>4.336556599884574</v>
       </c>
       <c r="H22" t="n">
-        <v>4.296982176777271</v>
+        <v>4.298587437456064</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.04824973716991643</v>
+        <v>-0.03796916242851012</v>
       </c>
       <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000165</v>
+        <v>0.000174</v>
       </c>
       <c r="N22" t="n">
-        <v>0.000188</v>
+        <v>0.00018</v>
       </c>
       <c r="O22" t="n">
-        <v>2.299999999999999e-05</v>
+        <v>6.00000000000001e-06</v>
       </c>
       <c r="P22" t="n">
-        <v>0.061307</v>
+        <v>0.0611612</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0503236</v>
+        <v>0.0510972</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.0109834</v>
+        <v>-0.010064</v>
       </c>
       <c r="S22" t="n">
-        <v>24729</v>
+        <v>24258</v>
       </c>
       <c r="T22" t="n">
-        <v>24743</v>
+        <v>24183</v>
       </c>
       <c r="U22" t="n">
-        <v>14</v>
+        <v>-75</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -2086,7 +3998,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2096,58 +4008,58 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="E23" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1600000000000001</v>
+        <v>-0.1399999999999997</v>
       </c>
       <c r="G23" t="n">
-        <v>4.348823162879575</v>
+        <v>4.326922916579815</v>
       </c>
       <c r="H23" t="n">
-        <v>4.331273898586867</v>
+        <v>4.282831718574577</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01754926429270842</v>
+        <v>-0.04409119800523786</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>-1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000176</v>
+        <v>0.000229</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00022</v>
+        <v>0.000142</v>
       </c>
       <c r="O23" t="n">
-        <v>4.400000000000001e-05</v>
+        <v>-8.7e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0566008</v>
+        <v>0.0598538</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.048973</v>
+        <v>0.0502504</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.007627799999999997</v>
+        <v>-0.009603399999999998</v>
       </c>
       <c r="S23" t="n">
-        <v>24073</v>
+        <v>23987</v>
       </c>
       <c r="T23" t="n">
-        <v>24060</v>
+        <v>24049</v>
       </c>
       <c r="U23" t="n">
-        <v>-13</v>
+        <v>62</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -2159,7 +4071,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2172,55 +4084,55 @@
         <v>5.78</v>
       </c>
       <c r="E24" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1100000000000003</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>4.333485195519093</v>
+        <v>4.331165963780699</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3438437889489</v>
+        <v>4.331359943919837</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01035859342980672</v>
+        <v>0.0001939801391381835</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000167</v>
+        <v>0.000259</v>
       </c>
       <c r="N24" t="n">
-        <v>0.000207</v>
+        <v>0.000133</v>
       </c>
       <c r="O24" t="n">
-        <v>4e-05</v>
+        <v>-0.000126</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0585602</v>
+        <v>0.0586588</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.048073</v>
+        <v>0.0495486</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.0104872</v>
+        <v>-0.009110199999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>24013</v>
+        <v>24186</v>
       </c>
       <c r="T24" t="n">
-        <v>24070</v>
+        <v>24251</v>
       </c>
       <c r="U24" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -2232,7 +4144,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2242,58 +4154,58 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="E25" t="n">
         <v>5.65</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.1499999999999995</v>
       </c>
       <c r="G25" t="n">
-        <v>4.362822687957418</v>
+        <v>4.384466220127347</v>
       </c>
       <c r="H25" t="n">
-        <v>4.338853664616919</v>
+        <v>4.327839287187526</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.02396902334049855</v>
+        <v>-0.05662693293982102</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.000185</v>
+        <v>0.000259</v>
       </c>
       <c r="N25" t="n">
-        <v>0.000214</v>
+        <v>0.000233</v>
       </c>
       <c r="O25" t="n">
-        <v>2.9e-05</v>
+        <v>-2.600000000000001e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0576116</v>
+        <v>0.0594438</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0469448</v>
+        <v>0.04886</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0106668</v>
+        <v>-0.0105838</v>
       </c>
       <c r="S25" t="n">
-        <v>24048</v>
+        <v>24186</v>
       </c>
       <c r="T25" t="n">
-        <v>24068</v>
+        <v>24242</v>
       </c>
       <c r="U25" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -2305,7 +4217,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2315,58 +4227,58 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="E26" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1499999999999995</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="G26" t="n">
-        <v>4.329865495127843</v>
+        <v>4.35615282986703</v>
       </c>
       <c r="H26" t="n">
-        <v>4.325366472545757</v>
+        <v>4.332209568162574</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.004499022582085566</v>
+        <v>-0.02394326170445638</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000202</v>
+        <v>0.000157</v>
       </c>
       <c r="N26" t="n">
-        <v>0.000236</v>
+        <v>0.000201</v>
       </c>
       <c r="O26" t="n">
-        <v>3.399999999999999e-05</v>
+        <v>4.400000000000001e-05</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0590442</v>
+        <v>0.0570664</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0492016</v>
+        <v>0.0496324</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.0098426</v>
+        <v>-0.007434000000000003</v>
       </c>
       <c r="S26" t="n">
-        <v>24014</v>
+        <v>23464</v>
       </c>
       <c r="T26" t="n">
-        <v>24040</v>
+        <v>23620</v>
       </c>
       <c r="U26" t="n">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -2378,7 +4290,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2388,58 +4300,58 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="E27" t="n">
         <v>5.65</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1199999999999992</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>4.35196211995348</v>
+        <v>4.355541259433378</v>
       </c>
       <c r="H27" t="n">
-        <v>4.298387485457869</v>
+        <v>4.32569441004046</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.05357463449561095</v>
+        <v>-0.02984684939291871</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.000148</v>
+        <v>0.000156</v>
       </c>
       <c r="N27" t="n">
-        <v>0.000155</v>
+        <v>7.7e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>7.000000000000008e-06</v>
+        <v>-7.9e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.057478</v>
+        <v>0.0583028</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0511402</v>
+        <v>0.0511224</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.006337800000000005</v>
+        <v>-0.007180400000000003</v>
       </c>
       <c r="S27" t="n">
-        <v>24076</v>
+        <v>24249</v>
       </c>
       <c r="T27" t="n">
-        <v>24068</v>
+        <v>24222</v>
       </c>
       <c r="U27" t="n">
-        <v>-8</v>
+        <v>-27</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -2451,7 +4363,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2464,67 +4376,67 @@
         <v>5.78</v>
       </c>
       <c r="E28" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>4.31888728024819</v>
+        <v>4.373171795191229</v>
       </c>
       <c r="H28" t="n">
-        <v>4.333231559482227</v>
+        <v>4.327455937112122</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01434427923403714</v>
+        <v>-0.04571585807910772</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.000172</v>
+        <v>0.000207</v>
       </c>
       <c r="N28" t="n">
-        <v>0.000166</v>
+        <v>0.000193</v>
       </c>
       <c r="O28" t="n">
-        <v>-6.00000000000001e-06</v>
+        <v>-1.399999999999999e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0599972</v>
+        <v>0.058344</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0504738</v>
+        <v>0.0514276</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.009523400000000001</v>
+        <v>-0.006916400000000003</v>
       </c>
       <c r="S28" t="n">
-        <v>24175</v>
+        <v>24081</v>
       </c>
       <c r="T28" t="n">
-        <v>24335</v>
+        <v>24170</v>
       </c>
       <c r="U28" t="n">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2534,70 +4446,70 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="E29" t="n">
-        <v>5.72</v>
+        <v>5.62</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0600000000000005</v>
+        <v>-0.1499999999999995</v>
       </c>
       <c r="G29" t="n">
-        <v>4.369361369399831</v>
+        <v>4.328927130506381</v>
       </c>
       <c r="H29" t="n">
-        <v>4.415335147582164</v>
+        <v>4.287939827251313</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04597377818233284</v>
+        <v>-0.0409873032550685</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00014</v>
+        <v>0.000115</v>
       </c>
       <c r="N29" t="n">
-        <v>0.000161</v>
+        <v>0.000158</v>
       </c>
       <c r="O29" t="n">
-        <v>2.100000000000002e-05</v>
+        <v>4.299999999999999e-05</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0588606</v>
+        <v>0.0581234</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0455556</v>
+        <v>0.0514694</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.013305</v>
+        <v>-0.006654</v>
       </c>
       <c r="S29" t="n">
-        <v>23660</v>
+        <v>24290</v>
       </c>
       <c r="T29" t="n">
-        <v>23885</v>
+        <v>24197</v>
       </c>
       <c r="U29" t="n">
-        <v>225</v>
+        <v>-93</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2607,58 +4519,58 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="E30" t="n">
         <v>5.63</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1699999999999999</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>4.388436159683273</v>
+        <v>4.339871161603688</v>
       </c>
       <c r="H30" t="n">
-        <v>4.342914132009104</v>
+        <v>4.297946274542019</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.04552202767416968</v>
+        <v>-0.0419248870616693</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00016</v>
+        <v>0.000134</v>
       </c>
       <c r="N30" t="n">
-        <v>0.000164</v>
+        <v>0.000147</v>
       </c>
       <c r="O30" t="n">
-        <v>3.999999999999989e-06</v>
+        <v>1.299999999999999e-05</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0596932</v>
+        <v>0.06044</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0491866</v>
+        <v>0.049712</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.0105066</v>
+        <v>-0.010728</v>
       </c>
       <c r="S30" t="n">
-        <v>24248</v>
+        <v>24294</v>
       </c>
       <c r="T30" t="n">
-        <v>24165</v>
+        <v>24346</v>
       </c>
       <c r="U30" t="n">
-        <v>-83</v>
+        <v>52</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -2670,7 +4582,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EmpiricalDispatch vs LBR</t>
+          <t>EmpiricalDispatch vs MinP95</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2680,64 +4592,4444 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1100000000000003</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.332940063351022</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.301232589670899</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.03170747368012261</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.000216</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9.999999999999972e-07</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0579544</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0494102</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.008544200000000002</v>
+      </c>
+      <c r="S31" t="n">
+        <v>24309</v>
+      </c>
+      <c r="T31" t="n">
+        <v>24339</v>
+      </c>
+      <c r="U31" t="n">
+        <v>30</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
         <v>5.8</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E32" t="n">
+        <v>5.642000000000044</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.157999999999956</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.335642794796126</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.322035427394439</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.01360736740168722</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.000181</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.000178</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-3.000000000000019e-06</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0575882</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0493774</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.008210799999999997</v>
+      </c>
+      <c r="S32" t="n">
+        <v>24059</v>
+      </c>
+      <c r="T32" t="n">
+        <v>24275</v>
+      </c>
+      <c r="U32" t="n">
+        <v>216</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.1499999999999995</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.330443069720782</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.378765097875886</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.04832202815510378</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.000165</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-7.400000000000001e-05</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.060728</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0467252</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.0140028</v>
+      </c>
+      <c r="S33" t="n">
+        <v>23924</v>
+      </c>
+      <c r="T33" t="n">
+        <v>24010</v>
+      </c>
+      <c r="U33" t="n">
+        <v>86</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.664000000000015</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.135999999999985</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.379751675041876</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.336476042628178</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.04327563241369869</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.000109</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.2e-05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.0578404</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.047689</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.0101514</v>
+      </c>
+      <c r="S34" t="n">
+        <v>23880</v>
+      </c>
+      <c r="T34" t="n">
+        <v>23834</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-46</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1500000000000004</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.380932357562227</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.336198028822263</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.0447343287399633</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.000188</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1.300000000000002e-05</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.059194</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.048223</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.01097099999999999</v>
+      </c>
+      <c r="S35" t="n">
+        <v>24186</v>
+      </c>
+      <c r="T35" t="n">
+        <v>24148</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-38</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E36" t="n">
         <v>5.68</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F36" t="n">
         <v>-0.1200000000000001</v>
       </c>
-      <c r="G31" t="n">
-        <v>4.32410448999917</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4.315450095411931</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.008654394587239267</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="G36" t="n">
+        <v>4.348999958879888</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.3836962492314</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03469629035151289</v>
+      </c>
+      <c r="J36" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K36" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.000159</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.000163</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.000000000000016e-06</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0578852</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0483664</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.009518800000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>24319</v>
+      </c>
+      <c r="T36" t="n">
+        <v>24395</v>
+      </c>
+      <c r="U36" t="n">
+        <v>76</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.1500000000000004</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.371558959033745</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.36049642441377</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.01106253461997486</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.000298</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.000165</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0582392</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0496634</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.008575799999999995</v>
+      </c>
+      <c r="S37" t="n">
+        <v>24093</v>
+      </c>
+      <c r="T37" t="n">
+        <v>24052</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-41</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.346492926284438</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.334421122495541</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.01207180378889738</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.000132</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.000136</v>
-      </c>
-      <c r="O31" t="n">
-        <v>3.999999999999989e-06</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.0587716</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.049377</v>
-      </c>
-      <c r="R31" t="n">
-        <v>-0.009394600000000003</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="N38" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.0581024</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0498186</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.008283800000000001</v>
+      </c>
+      <c r="S38" t="n">
+        <v>24174</v>
+      </c>
+      <c r="T38" t="n">
+        <v>24107</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-67</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.345399143381603</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.328298692247776</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.0171004511338273</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.000185</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.000197</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.199999999999999e-05</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0585172</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0486404</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.009876799999999998</v>
+      </c>
+      <c r="S39" t="n">
+        <v>24515</v>
+      </c>
+      <c r="T39" t="n">
+        <v>24393</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-122</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1799999999999997</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.346187803965582</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.319885429638854</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.02630237432672722</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.000124</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-4.7e-05</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.0570188</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0472184</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.009800400000000001</v>
+      </c>
+      <c r="S40" t="n">
+        <v>24057</v>
+      </c>
+      <c r="T40" t="n">
+        <v>24090</v>
+      </c>
+      <c r="U40" t="n">
+        <v>33</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1500000000000004</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.317827774763117</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.285484550857817</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.03234322390529965</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.000144</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.000147</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.999999999999992e-06</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.057249</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.0475088</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.009740200000000004</v>
+      </c>
+      <c r="S41" t="n">
+        <v>23957</v>
+      </c>
+      <c r="T41" t="n">
+        <v>23723</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-234</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.372603603603604</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.341126552699545</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.03147705090405939</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.000205</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-5.700000000000003e-05</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0581786</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.047777</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.0104016</v>
+      </c>
+      <c r="S42" t="n">
+        <v>24420</v>
+      </c>
+      <c r="T42" t="n">
+        <v>24393</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-27</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.307136683541178</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.361095851098721</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.05395916755754282</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.000188</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.000000000000022e-06</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0602184</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0493404</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.010878</v>
+      </c>
+      <c r="S43" t="n">
+        <v>24297</v>
+      </c>
+      <c r="T43" t="n">
+        <v>24392</v>
+      </c>
+      <c r="U43" t="n">
+        <v>95</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.0600000000000005</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.348541666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.424085752897334</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.07554408623066688</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.000234</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.000126</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.000108</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0581528</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0464814</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.0116714</v>
+      </c>
+      <c r="S44" t="n">
+        <v>24336</v>
+      </c>
+      <c r="T44" t="n">
+        <v>24419</v>
+      </c>
+      <c r="U44" t="n">
+        <v>83</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>14</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.335084802128367</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.298143986683312</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.03694081544505501</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.000107</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-4.400000000000001e-05</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0592462</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0482082</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.011038</v>
+      </c>
+      <c r="S45" t="n">
+        <v>24056</v>
+      </c>
+      <c r="T45" t="n">
+        <v>24030</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-26</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.322889967772988</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.312388564273789</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.01050140349919904</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.000172</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.000197</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.499999999999998e-05</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.0574526</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0481912</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.009261400000000003</v>
+      </c>
+      <c r="S46" t="n">
+        <v>23893</v>
+      </c>
+      <c r="T46" t="n">
+        <v>23960</v>
+      </c>
+      <c r="U46" t="n">
+        <v>67</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>16</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1399999999999997</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.342040543279952</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.318492271203075</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.02354827207687649</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.000274</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-8.099999999999999e-05</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0587682</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0494446</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.009323600000000001</v>
+      </c>
+      <c r="S47" t="n">
+        <v>24665</v>
+      </c>
+      <c r="T47" t="n">
+        <v>24454</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-211</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.1799999999999997</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.422661980566466</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.377959166735828</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.04470281383063757</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.000246</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.000159</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-8.700000000000003e-05</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.058601</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0474058</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.0111952</v>
+      </c>
+      <c r="S48" t="n">
+        <v>24185</v>
+      </c>
+      <c r="T48" t="n">
         <v>24098</v>
       </c>
-      <c r="T31" t="n">
-        <v>24106</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="U48" t="n">
+        <v>-87</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.349472407012258</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.36821551218695</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0187431051746918</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.000175</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-3.299999999999999e-05</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.0585274</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.0493316</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.009195799999999997</v>
+      </c>
+      <c r="S49" t="n">
+        <v>23901</v>
+      </c>
+      <c r="T49" t="n">
+        <v>23878</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-23</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>19</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.08999999999999986</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.33231807951988</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.391900546950023</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.05958246743014239</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.000134</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.000129</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-5.000000000000013e-06</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.0574354</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0473056</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.01012979999999999</v>
+      </c>
+      <c r="S50" t="n">
+        <v>23994</v>
+      </c>
+      <c r="T50" t="n">
+        <v>23951</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-43</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.1399999999999997</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.331863419798836</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.336864334643914</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.005000914845077808</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.000143</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.0625156</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.0507144</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.0118012</v>
+      </c>
+      <c r="S51" t="n">
+        <v>24557</v>
+      </c>
+      <c r="T51" t="n">
+        <v>24671</v>
+      </c>
+      <c r="U51" t="n">
+        <v>114</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.336556599884574</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.337082988923789</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0005263890392148696</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.000174</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.000271</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9.699999999999997e-05</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.0611612</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0488638</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.0122974</v>
+      </c>
+      <c r="S52" t="n">
+        <v>24258</v>
+      </c>
+      <c r="T52" t="n">
+        <v>24196</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-62</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>22</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.1199999999999992</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.326922916579815</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.292955502731556</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.0339674138482593</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.000229</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.000212</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.700000000000001e-05</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.0598538</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.048492</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.0113618</v>
+      </c>
+      <c r="S53" t="n">
+        <v>23987</v>
+      </c>
+      <c r="T53" t="n">
+        <v>23979</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>23</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.1600000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.331165963780699</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.332744340824124</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.001578377043424339</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.000259</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.000202</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-5.7e-05</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.0586588</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.0487972</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.009861599999999998</v>
+      </c>
+      <c r="S54" t="n">
+        <v>24186</v>
+      </c>
+      <c r="T54" t="n">
+        <v>24341</v>
+      </c>
+      <c r="U54" t="n">
+        <v>155</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.1499999999999995</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.384466220127347</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.327392270650697</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.05707394947665012</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.000259</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-4.500000000000001e-05</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.0594438</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.0484042</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.0110396</v>
+      </c>
+      <c r="S55" t="n">
+        <v>24186</v>
+      </c>
+      <c r="T55" t="n">
+        <v>24297</v>
+      </c>
+      <c r="U55" t="n">
+        <v>111</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.35615282986703</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.332636788445199</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.02351604142183117</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.000157</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-4.699999999999999e-05</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0570664</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.0490396</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.008026800000000001</v>
+      </c>
+      <c r="S56" t="n">
+        <v>23464</v>
+      </c>
+      <c r="T56" t="n">
+        <v>23540</v>
+      </c>
+      <c r="U56" t="n">
+        <v>76</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.1500000000000004</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.355541259433378</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.381517559389025</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0259762999556461</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.000156</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-4.999999999999986e-06</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.0583028</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.0485616</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.009741199999999998</v>
+      </c>
+      <c r="S57" t="n">
+        <v>24249</v>
+      </c>
+      <c r="T57" t="n">
+        <v>24289</v>
+      </c>
+      <c r="U57" t="n">
+        <v>40</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>27</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.373171795191229</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.340201519656425</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.03297027553480447</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.000207</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.000124</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-8.299999999999998e-05</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.058344</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.0495706</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-0.008773400000000001</v>
+      </c>
+      <c r="S58" t="n">
+        <v>24081</v>
+      </c>
+      <c r="T58" t="n">
+        <v>24216</v>
+      </c>
+      <c r="U58" t="n">
+        <v>135</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>28</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.1399999999999997</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.328927130506381</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.306653460443234</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.0222736700631474</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.000115</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.000129</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.399999999999999e-05</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.0581234</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.0504408</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.007682599999999998</v>
+      </c>
+      <c r="S59" t="n">
+        <v>24290</v>
+      </c>
+      <c r="T59" t="n">
+        <v>24231</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-59</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>29</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.339871161603688</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.302691485864562</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.03717967573912606</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.000134</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5.199999999999999e-05</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.06044</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.0490816</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.0113584</v>
+      </c>
+      <c r="S60" t="n">
+        <v>24294</v>
+      </c>
+      <c r="T60" t="n">
+        <v>24336</v>
+      </c>
+      <c r="U60" t="n">
+        <v>42</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>EmpiricalDispatch vs LBR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.332940063351022</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.409955697760275</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.07701563440925341</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.000216</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.000219</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3.000000000000019e-06</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.0579544</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.0461966</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-0.01175780000000001</v>
+      </c>
+      <c r="S61" t="n">
+        <v>24309</v>
+      </c>
+      <c r="T61" t="n">
+        <v>24378</v>
+      </c>
+      <c r="U61" t="n">
+        <v>69</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.642000000000044</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01200000000004398</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.320371374578917</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.322035427394439</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.001664052815521622</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.000178</v>
+      </c>
+      <c r="O62" t="n">
+        <v>7.999999999999978e-06</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.0504334</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.0493774</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-0.001056000000000001</v>
+      </c>
+      <c r="S62" t="n">
+        <v>24342</v>
+      </c>
+      <c r="T62" t="n">
+        <v>24275</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-67</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.02000000000000046</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4.320997288842545</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.378765097875886</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.05776780903334089</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.000165</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-3.600000000000001e-05</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.0487504</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.0467252</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.002025199999999998</v>
+      </c>
+      <c r="S63" t="n">
+        <v>23975</v>
+      </c>
+      <c r="T63" t="n">
+        <v>24010</v>
+      </c>
+      <c r="U63" t="n">
+        <v>35</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.664000000000015</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01400000000001445</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.328053401517374</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.336476042628178</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.00842264111080393</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.000165</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="O64" t="n">
+        <v>6.00000000000001e-06</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.048274</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.047689</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.0005849999999999952</v>
+      </c>
+      <c r="S64" t="n">
+        <v>23857</v>
+      </c>
+      <c r="T64" t="n">
+        <v>23834</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-23</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.309227355673523</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4.336198028822263</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0269706731487398</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.000162</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.000188</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.599999999999998e-05</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.049865</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.048223</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.001641999999999998</v>
+      </c>
+      <c r="S65" t="n">
+        <v>24112</v>
+      </c>
+      <c r="T65" t="n">
+        <v>24148</v>
+      </c>
+      <c r="U65" t="n">
+        <v>36</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.346819038256737</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.3836962492314</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.03687721097466312</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.000177</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.000163</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-1.399999999999999e-05</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0502638</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.0483664</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.0018974</v>
+      </c>
+      <c r="S66" t="n">
+        <v>24414</v>
+      </c>
+      <c r="T66" t="n">
+        <v>24395</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-19</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.356665694889842</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.36049642441377</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.003830729523928156</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.000139</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-5.999999999999983e-06</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.0503108</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.0496634</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.0006473999999999994</v>
+      </c>
+      <c r="S67" t="n">
+        <v>24011</v>
+      </c>
+      <c r="T67" t="n">
+        <v>24052</v>
+      </c>
+      <c r="U67" t="n">
+        <v>41</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4.335465015120759</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.334421122495541</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.001043892625218312</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.000172</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-9.999999999999972e-07</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0508532</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.0498186</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-0.001034600000000004</v>
+      </c>
+      <c r="S68" t="n">
+        <v>24139</v>
+      </c>
+      <c r="T68" t="n">
+        <v>24107</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-32</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
         <v>8</v>
       </c>
-      <c r="V31" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1</v>
+      <c r="D69" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.274332446264073</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.328298692247776</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0539662459837027</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.000296</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.000197</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-9.899999999999999e-05</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0523692</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0486404</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-0.003728799999999997</v>
+      </c>
+      <c r="S69" t="n">
+        <v>24425</v>
+      </c>
+      <c r="T69" t="n">
+        <v>24393</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-32</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.320116225976506</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4.319885429638854</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.0002307963376511069</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.000124</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-6.199999999999999e-05</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0488242</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0472184</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-0.001605799999999998</v>
+      </c>
+      <c r="S70" t="n">
+        <v>24091</v>
+      </c>
+      <c r="T70" t="n">
+        <v>24090</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.279755260845919</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.285484550857817</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.005729290011898591</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.000177</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.000147</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-3e-05</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.0491236</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0475088</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-0.001614800000000007</v>
+      </c>
+      <c r="S71" t="n">
+        <v>23903</v>
+      </c>
+      <c r="T71" t="n">
+        <v>23723</v>
+      </c>
+      <c r="U71" t="n">
+        <v>-180</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.33778773006135</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.341126552699545</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.003338822638195182</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.000205</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-9.000000000000002e-06</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0496182</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.047777</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-0.001841200000000001</v>
+      </c>
+      <c r="S72" t="n">
+        <v>24450</v>
+      </c>
+      <c r="T72" t="n">
+        <v>24393</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-57</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.30671203026067</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.361095851098721</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.05438382083805138</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.000157</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.300000000000002e-05</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.0505798</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0493404</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-0.001239400000000002</v>
+      </c>
+      <c r="S73" t="n">
+        <v>24322</v>
+      </c>
+      <c r="T73" t="n">
+        <v>24392</v>
+      </c>
+      <c r="U73" t="n">
+        <v>70</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0699999999999994</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.319647150216698</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.424085752897334</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.1044386026806361</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.000104</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.000126</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.200000000000001e-05</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0492184</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0464814</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-0.002737000000000003</v>
+      </c>
+      <c r="S74" t="n">
+        <v>24458</v>
+      </c>
+      <c r="T74" t="n">
+        <v>24419</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-39</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>14</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.277911841613746</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.298143986683312</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.02023214506956617</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.000135</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.000107</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-2.8e-05</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.0508704</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.0482082</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-0.002662200000000003</v>
+      </c>
+      <c r="S75" t="n">
+        <v>24093</v>
+      </c>
+      <c r="T75" t="n">
+        <v>24030</v>
+      </c>
+      <c r="U75" t="n">
+        <v>-63</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.308829769462078</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.312388564273789</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.003558794811710619</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.000197</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0496298</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.0481912</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-0.001438600000000005</v>
+      </c>
+      <c r="S76" t="n">
+        <v>23944</v>
+      </c>
+      <c r="T76" t="n">
+        <v>23960</v>
+      </c>
+      <c r="U76" t="n">
+        <v>16</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>16</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.322324934554974</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.318492271203075</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.003832663351898802</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7.000000000000008e-06</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.0509408</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.0494446</v>
+      </c>
+      <c r="R77" t="n">
+        <v>-0.001496200000000003</v>
+      </c>
+      <c r="S77" t="n">
+        <v>24448</v>
+      </c>
+      <c r="T77" t="n">
+        <v>24454</v>
+      </c>
+      <c r="U77" t="n">
+        <v>6</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>17</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.332963393858811</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4.377959166735828</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.04499577287701761</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.000159</v>
+      </c>
+      <c r="O78" t="n">
+        <v>6.899999999999998e-05</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.049229</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.0474058</v>
+      </c>
+      <c r="R78" t="n">
+        <v>-0.001823200000000004</v>
+      </c>
+      <c r="S78" t="n">
+        <v>24067</v>
+      </c>
+      <c r="T78" t="n">
+        <v>24098</v>
+      </c>
+      <c r="U78" t="n">
+        <v>31</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>18</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.03000000000000025</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4.328287699907897</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.36821551218695</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0399278122790534</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.000138</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4.000000000000016e-06</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.052468</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0493316</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-0.003136399999999998</v>
+      </c>
+      <c r="S79" t="n">
+        <v>23886</v>
+      </c>
+      <c r="T79" t="n">
+        <v>23878</v>
+      </c>
+      <c r="U79" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>19</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.33969617184888</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.391900546950023</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.05220437510114273</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.000129</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-4.000000000000016e-06</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0488924</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.0473056</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-0.001586799999999999</v>
+      </c>
+      <c r="S80" t="n">
+        <v>23928</v>
+      </c>
+      <c r="T80" t="n">
+        <v>23951</v>
+      </c>
+      <c r="U80" t="n">
+        <v>23</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.02000000000000046</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4.330518587814203</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4.336864334643914</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.006345746829710563</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>4</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-8.000000000000005e-06</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.0505962</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.0507144</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0001181999999999989</v>
+      </c>
+      <c r="S81" t="n">
+        <v>24586</v>
+      </c>
+      <c r="T81" t="n">
+        <v>24671</v>
+      </c>
+      <c r="U81" t="n">
+        <v>85</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>21</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.03000000000000025</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.298587437456064</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.337082988923789</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.03849555146772499</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.000271</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9.099999999999996e-05</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.0510972</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.0488638</v>
+      </c>
+      <c r="R82" t="n">
+        <v>-0.002233400000000003</v>
+      </c>
+      <c r="S82" t="n">
+        <v>24183</v>
+      </c>
+      <c r="T82" t="n">
+        <v>24196</v>
+      </c>
+      <c r="U82" t="n">
+        <v>13</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>22</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.02000000000000046</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.282831718574577</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4.292955502731556</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.01012378415697857</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.000212</v>
+      </c>
+      <c r="O83" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0502504</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.048492</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-0.0017584</v>
+      </c>
+      <c r="S83" t="n">
+        <v>24049</v>
+      </c>
+      <c r="T83" t="n">
+        <v>23979</v>
+      </c>
+      <c r="U83" t="n">
+        <v>-70</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>23</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.331359943919837</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4.332744340824124</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.001384396904286156</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.000133</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.000202</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6.9e-05</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0495486</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.0487972</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-0.0007513999999999993</v>
+      </c>
+      <c r="S84" t="n">
+        <v>24251</v>
+      </c>
+      <c r="T84" t="n">
+        <v>24341</v>
+      </c>
+      <c r="U84" t="n">
+        <v>90</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>24</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4.327839287187526</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.327392270650697</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.0004470165368291035</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.000233</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-1.9e-05</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.04886</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.0484042</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-0.0004557999999999993</v>
+      </c>
+      <c r="S85" t="n">
+        <v>24242</v>
+      </c>
+      <c r="T85" t="n">
+        <v>24297</v>
+      </c>
+      <c r="U85" t="n">
+        <v>55</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.332209568162574</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4.332636788445199</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0004272202826252069</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-9.1e-05</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0496324</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.0490396</v>
+      </c>
+      <c r="R86" t="n">
+        <v>-0.0005927999999999975</v>
+      </c>
+      <c r="S86" t="n">
+        <v>23620</v>
+      </c>
+      <c r="T86" t="n">
+        <v>23540</v>
+      </c>
+      <c r="U86" t="n">
+        <v>-80</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.32569441004046</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.381517559389025</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0558231493485648</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>7.7e-05</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.000151</v>
+      </c>
+      <c r="O87" t="n">
+        <v>7.400000000000001e-05</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0511224</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.0485616</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-0.002560799999999995</v>
+      </c>
+      <c r="S87" t="n">
+        <v>24222</v>
+      </c>
+      <c r="T87" t="n">
+        <v>24289</v>
+      </c>
+      <c r="U87" t="n">
+        <v>67</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>27</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.03000000000000025</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.327455937112122</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4.340201519656425</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01274558254430325</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.000193</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.000124</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-6.9e-05</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0514276</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0495706</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-0.001856999999999998</v>
+      </c>
+      <c r="S88" t="n">
+        <v>24170</v>
+      </c>
+      <c r="T88" t="n">
+        <v>24216</v>
+      </c>
+      <c r="U88" t="n">
+        <v>46</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>28</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4.287939827251313</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.306653460443234</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0187136331919211</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.000158</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.000129</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-2.9e-05</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.0514694</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.0504408</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-0.001028599999999998</v>
+      </c>
+      <c r="S89" t="n">
+        <v>24197</v>
+      </c>
+      <c r="T89" t="n">
+        <v>24231</v>
+      </c>
+      <c r="U89" t="n">
+        <v>34</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>29</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.297946274542019</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4.302691485864562</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.004745211322543241</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.000147</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.049712</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.0490816</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-0.0006303999999999962</v>
+      </c>
+      <c r="S90" t="n">
+        <v>24346</v>
+      </c>
+      <c r="T90" t="n">
+        <v>24336</v>
+      </c>
+      <c r="U90" t="n">
+        <v>-10</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MinP95 vs LBR</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.03000000000000025</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.301232589670899</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4.409955697760275</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.108723108089376</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.000219</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.000000000000022e-06</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.0494102</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0461966</v>
+      </c>
+      <c r="R91" t="n">
+        <v>-0.003213600000000004</v>
+      </c>
+      <c r="S91" t="n">
+        <v>24339</v>
+      </c>
+      <c r="T91" t="n">
+        <v>24378</v>
+      </c>
+      <c r="U91" t="n">
+        <v>39</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
